--- a/data/trans_camb/P71_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>16.01661223296753</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.867113742297309</v>
+        <v>2.867113742297311</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.370313049953614</v>
@@ -655,7 +655,7 @@
         <v>6.776053293282572</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.890059174474835</v>
+        <v>-2.890059174474838</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.06859529699484</v>
@@ -664,7 +664,7 @@
         <v>11.52149122263599</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.05131351565055564</v>
+        <v>0.05131351565055842</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.239946715045</v>
+        <v>10.30727970198534</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.41327567138791</v>
+        <v>10.45253455291999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.520067364515532</v>
+        <v>-3.608623757087952</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.77480570706753</v>
+        <v>-1.541988588414103</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3687563552879467</v>
+        <v>0.8259839583963646</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.588577013964048</v>
+        <v>-9.676997293794209</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.141572548372743</v>
+        <v>5.993941958020345</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.422511823624141</v>
+        <v>7.312022819785286</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.294143441792358</v>
+        <v>-4.557278954509412</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.82678937121788</v>
+        <v>20.77845747526782</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.37575679404485</v>
+        <v>21.53653490168225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.38231798548</v>
+        <v>10.26897762655943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.472419937756403</v>
+        <v>10.51098838785579</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.14261324315987</v>
+        <v>12.56545567486206</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.585974803854085</v>
+        <v>3.864889585738741</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.33524825508698</v>
+        <v>13.68106411234868</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.45080002558045</v>
+        <v>15.55785653492909</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.410173261139793</v>
+        <v>4.772237969731765</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.201606572900974</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2150980911498815</v>
+        <v>0.2150980911498817</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.204864074281823</v>
@@ -760,7 +760,7 @@
         <v>0.3176362583974083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1354752601543637</v>
+        <v>-0.1354752601543638</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5846387915702073</v>
@@ -769,7 +769,7 @@
         <v>0.6690020312465146</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.002979548874122865</v>
+        <v>0.002979548874123026</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6577289660556884</v>
+        <v>0.6841243081967372</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.6723893536375084</v>
+        <v>0.6848972990400584</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2480421748686054</v>
+        <v>-0.2644625618443791</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.07228167935626036</v>
+        <v>-0.06551979214563639</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01436024426217386</v>
+        <v>0.03345715279041991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4074171209294444</v>
+        <v>-0.4144521667807647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3023006634190619</v>
+        <v>0.3096498445501555</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3889255828503249</v>
+        <v>0.3775748625293793</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2396242899904935</v>
+        <v>-0.2482960023363516</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.86463688111522</v>
+        <v>1.865159085526774</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.872745008959793</v>
+        <v>1.918520817650651</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8966326713597451</v>
+        <v>0.8475707143919702</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.498194749170718</v>
+        <v>0.5652666551440075</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6474325508228065</v>
+        <v>0.6903914031515563</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2375522268183243</v>
+        <v>0.192175005836076</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9205139580055849</v>
+        <v>0.8901938801900972</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9946145430757266</v>
+        <v>1.017630300185778</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3199135752190436</v>
+        <v>0.3070012052522567</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>17.79323025777193</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.336372082495612</v>
+        <v>-3.336372082495615</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>12.48313621362044</v>
@@ -869,7 +869,7 @@
         <v>11.02631904718405</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.870524350041826</v>
+        <v>-3.870524350041829</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>12.65302636365421</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.047572020902646</v>
+        <v>8.419707088794132</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.80791950512372</v>
+        <v>12.97311158196622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.027932484012648</v>
+        <v>-8.401717330735355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.124859404994998</v>
+        <v>7.462832807922257</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.912825309014035</v>
+        <v>5.843317754097699</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.528325768424368</v>
+        <v>-8.630675274736166</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.16743921817007</v>
+        <v>9.341723508620099</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>11.01990443418816</v>
+        <v>10.97253808049017</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.711999448494331</v>
+        <v>-6.724695331342588</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.9158263184222</v>
+        <v>17.37448136179417</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.32102002641473</v>
+        <v>23.19740882222804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.742216415078197</v>
+        <v>1.955145183490727</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.46833385845275</v>
+        <v>17.86429896626581</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.25842445490529</v>
+        <v>16.04621257581908</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.15129407267414</v>
+        <v>0.9637406380231679</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.83312986118309</v>
+        <v>16.16412673541257</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.99809916614566</v>
+        <v>18.35659966608922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2472393935289291</v>
+        <v>0.2775400284568443</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>1.040038547525653</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1950154932192949</v>
+        <v>-0.195015493219295</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5877159455480538</v>
@@ -974,7 +974,7 @@
         <v>0.5191278388566763</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1822273537053598</v>
+        <v>-0.18222735370536</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6661887595512478</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4098935419659338</v>
+        <v>0.4342917044531925</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.6413491621599284</v>
+        <v>0.681171177159224</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.430946937668346</v>
+        <v>-0.4342811687620344</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3017767616735129</v>
+        <v>0.3022315594390376</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2328046310582742</v>
+        <v>0.2437915547759576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3652426185130986</v>
+        <v>-0.3648959195223342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4450054104806596</v>
+        <v>0.4373414598597892</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5255609373996991</v>
+        <v>0.5301365759025547</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.329631482836347</v>
+        <v>-0.3363733285375297</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.138144459666138</v>
+        <v>1.135604649275386</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.466515486571057</v>
+        <v>1.55114743772924</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1087286855655811</v>
+        <v>0.1269639166465676</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9286593140753711</v>
+        <v>0.9322984134249614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.843165253490362</v>
+        <v>0.855739792138056</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06014833772638894</v>
+        <v>0.05450851745551874</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9340944282151044</v>
+        <v>0.9378320909307255</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.058670249669852</v>
+        <v>1.056695108097441</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.018652759057717</v>
+        <v>0.01778737672482288</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>17.67007755942354</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.084856205869025</v>
+        <v>1.084856205869023</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>9.897741469958998</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>14.79796435298598</v>
+        <v>15.40305051876098</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>12.90410861194466</v>
+        <v>12.47745789634952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.009410518302762</v>
+        <v>-3.271611281096983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.849169339213156</v>
+        <v>4.76470213756305</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.464173563682393</v>
+        <v>6.125675789646233</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-14.53173095231512</v>
+        <v>-14.40966407888948</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.45490322116503</v>
+        <v>11.34794910959332</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>10.99920783654136</v>
+        <v>10.76306794118969</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.331649097670885</v>
+        <v>-7.841038379247217</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.00732205605811</v>
+        <v>24.87811476913246</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.0004097834572</v>
+        <v>22.50881117736743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.40687169293377</v>
+        <v>5.087391571319105</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.7540130819367</v>
+        <v>15.01454902181697</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.63844705787769</v>
+        <v>16.67378514930656</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.753227929486452</v>
+        <v>-5.901318118339064</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.31142535037035</v>
+        <v>18.08613016973962</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.88241957241664</v>
+        <v>17.73563755648067</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.586835745310906</v>
+        <v>-1.812433467495657</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.182211354590635</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.07258198614937593</v>
+        <v>0.07258198614937575</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3870226978842927</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.8375290986179943</v>
+        <v>0.8977365589517398</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.752758938529553</v>
+        <v>0.704534696144674</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1782214619414025</v>
+        <v>-0.2015018226684816</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1724732237245467</v>
+        <v>0.1661410101313178</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.233360795704164</v>
+        <v>0.2159904019899618</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5175593447035978</v>
+        <v>-0.5166046395593908</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5183558179666349</v>
+        <v>0.510311616675338</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4934182502203648</v>
+        <v>0.4872126873888309</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3403407205560001</v>
+        <v>-0.3541231302841426</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.916729472874924</v>
+        <v>1.96704078352313</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.703040742488497</v>
+        <v>1.796577373451982</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4070978288376029</v>
+        <v>0.383053148317196</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6470188680231019</v>
+        <v>0.6504064240132194</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7020485786847026</v>
+        <v>0.7262980183892298</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2508835328400033</v>
+        <v>-0.2555631836397256</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9777076834141044</v>
+        <v>0.9664423655969907</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9446403293162887</v>
+        <v>0.9444779616216037</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.08443899055021947</v>
+        <v>-0.09095875769593023</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>16.12855051523027</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-11.14960248646405</v>
+        <v>-11.14960248646406</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>12.57690133708855</v>
@@ -1306,7 +1306,7 @@
         <v>19.57094708712214</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.473858304596424</v>
+        <v>-6.473858304596422</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>12.2078772202076</v>
+        <v>12.5366335396845</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.77146232720429</v>
+        <v>17.25020494969786</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.807210972877743</v>
+        <v>-6.530482460796147</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.801805037477798</v>
+        <v>1.675607644710831</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.3382753590625</v>
+        <v>10.64426266016047</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-15.58281865593234</v>
+        <v>-15.48087991445662</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.648783437421761</v>
+        <v>8.723219057416765</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>15.96843051361869</v>
+        <v>15.77012378675743</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-9.680074533575469</v>
+        <v>-9.53484905917913</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.42148462796975</v>
+        <v>23.19220189639798</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>28.27357806028362</v>
+        <v>27.63775223886131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.329391333595642</v>
+        <v>2.287395607323051</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.84348880158004</v>
+        <v>12.82077464850371</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>21.75081449323871</v>
+        <v>21.5750996018932</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-6.826335015859733</v>
+        <v>-6.341495246628432</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.95862795987791</v>
+        <v>16.57506603409235</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>23.32163947709937</v>
+        <v>23.26455151941947</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.345080737917041</v>
+        <v>-3.218980613319462</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.6112444713088637</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4225508591554553</v>
+        <v>-0.4225508591554555</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5950574547968713</v>
@@ -1411,7 +1411,7 @@
         <v>0.9259703681767977</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3063010150273245</v>
+        <v>-0.3063010150273244</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6520034666856007</v>
+        <v>0.6389866282821567</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.9597681539503765</v>
+        <v>0.9099558339668846</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3582357630653195</v>
+        <v>-0.3475814180957535</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06528792306369842</v>
+        <v>0.05786615598955778</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3386007326972568</v>
+        <v>0.3581777004005381</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5323540883134738</v>
+        <v>-0.5294939809537893</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3784646838260324</v>
+        <v>0.3718400392812362</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6839882490269389</v>
+        <v>0.6793919376896533</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4204312796578875</v>
+        <v>-0.416387990335087</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.658071990677831</v>
+        <v>1.705961892703721</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.084482720216193</v>
+        <v>2.076358278535367</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1776164829579933</v>
+        <v>0.1760830654997858</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5603835735151143</v>
+        <v>0.5418820008590136</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9217142573774354</v>
+        <v>0.9076519404119953</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2944152769345126</v>
+        <v>-0.2757191024068014</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8937670660356395</v>
+        <v>0.8592071231063213</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.219681598508592</v>
+        <v>1.22364070042388</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1811054256893194</v>
+        <v>-0.1770526054118143</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3498189586640231</v>
+        <v>0.5549574413626414</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.439147845526685</v>
+        <v>5.61773694497545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.23137915632165</v>
+        <v>-10.84082854512289</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.143634032877962</v>
+        <v>-5.402872877897893</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.596301839323393</v>
+        <v>2.826215662952633</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-14.12964894757209</v>
+        <v>-13.82736786858962</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.249996672178598</v>
+        <v>-0.9523206493028452</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.041441563402347</v>
+        <v>5.345309320651925</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.98722400318461</v>
+        <v>-11.17184756400748</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.39992307339138</v>
+        <v>13.19328950674854</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>18.05932675211259</v>
+        <v>17.99822030483977</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5384980105212606</v>
+        <v>-0.2471481242038314</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.923426628042287</v>
+        <v>7.05345223538578</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>15.42435255422768</v>
+        <v>15.47058097469362</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.512666284650459</v>
+        <v>-3.60322285006747</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.259381969207473</v>
+        <v>8.185814588877244</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.40539831803338</v>
+        <v>14.82326813163546</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.629435162769018</v>
+        <v>-3.716306719447287</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.01248689111315196</v>
+        <v>0.02001117004458655</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2057705988059906</v>
+        <v>0.2140364012390937</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.383601612269068</v>
+        <v>-0.4080948649295222</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1916974050659541</v>
+        <v>-0.1734449131625811</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08188568286407862</v>
+        <v>0.08187702385951108</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4315242925751791</v>
+        <v>-0.4189743464633648</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04289969883224635</v>
+        <v>-0.031742749565316</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2112555596073058</v>
+        <v>0.1892704715112542</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3823964862079924</v>
+        <v>-0.3808225271670886</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6574341920647114</v>
+        <v>0.6494342689189585</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9099580238782446</v>
+        <v>0.8880017542805949</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.02536010209547208</v>
+        <v>-0.01224996444617112</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2704495843657996</v>
+        <v>0.2778763391598045</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6029572717479642</v>
+        <v>0.6122533944166203</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1420030042199001</v>
+        <v>-0.1405623095710518</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3526009833804831</v>
+        <v>0.3398368591600663</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6755806822386328</v>
+        <v>0.6178892730639338</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1510822657908883</v>
+        <v>-0.1561676474909904</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.465556631249489</v>
+        <v>-8.171551753995075</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.9105060752972463</v>
+        <v>-1.405191468550036</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-18.32242510460858</v>
+        <v>-18.73731938812065</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-20.42036708999233</v>
+        <v>-20.6900744920602</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.86114346529921</v>
+        <v>-15.60755064359757</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-33.94897593207396</v>
+        <v>-33.7002068739915</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-12.96151375569408</v>
+        <v>-12.59651591441333</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.062347247358522</v>
+        <v>-6.917820533286954</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-25.45962870492785</v>
+        <v>-25.6638850977171</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.561389877962588</v>
+        <v>6.129907045081739</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.57132923355064</v>
+        <v>13.04751787399285</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-7.924340877752697</v>
+        <v>-8.082383744863645</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-6.615217040325047</v>
+        <v>-7.041144127136473</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.475904984169192</v>
+        <v>-2.450236154624872</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-22.80833251902285</v>
+        <v>-21.93448840202899</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-2.529511220758917</v>
+        <v>-2.404527393382996</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.556670817137133</v>
+        <v>2.909661697062919</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-17.61120998388254</v>
+        <v>-17.60104521387577</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2754602189789789</v>
+        <v>-0.2996977133700989</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.03463462600715408</v>
+        <v>-0.06877332622962989</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6852644442826719</v>
+        <v>-0.6901776385991359</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4662300421670087</v>
+        <v>-0.4789954822988747</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3643800823322319</v>
+        <v>-0.3599527423649944</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7592718223447328</v>
+        <v>-0.7547274794105141</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3685648072667925</v>
+        <v>-0.3626680561793633</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2020415294373847</v>
+        <v>-0.1968088598173981</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7125199263457149</v>
+        <v>-0.7182302312143922</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3640755377778751</v>
+        <v>0.3162229455228211</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7005885434146287</v>
+        <v>0.6436532618485746</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3880783323710686</v>
+        <v>-0.3943050948690058</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.1776808795069469</v>
+        <v>-0.1890600238652925</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.07265140902728011</v>
+        <v>-0.06089307367521407</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.6261642026270503</v>
+        <v>-0.6140452482112029</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.08526742653802513</v>
+        <v>-0.08117444246750957</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.08569085873849436</v>
+        <v>0.09939509231532057</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.590761430257847</v>
+        <v>-0.5881564541227154</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-12.64901320120418</v>
+        <v>-12.56452830774037</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-10.73704892881837</v>
+        <v>-11.22520208587925</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-29.34982553564792</v>
+        <v>-29.03389443804593</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-17.82559712412941</v>
+        <v>-17.7198851791981</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.92743036582035</v>
+        <v>-13.25591306267678</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-28.63270517965632</v>
+        <v>-28.31410300101517</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-13.76521570590143</v>
+        <v>-13.32437368354346</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-10.80125742271391</v>
+        <v>-10.65664301865413</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-27.26770847019866</v>
+        <v>-27.0041201580573</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.064989105796264</v>
+        <v>4.528206537568021</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.163860695598236</v>
+        <v>4.761292268570145</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-15.75226390204231</v>
+        <v>-15.55571966144649</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-3.231126828468401</v>
+        <v>-2.651775440773371</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.78950879197736</v>
+        <v>1.911075805891216</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-15.99275808825399</v>
+        <v>-15.53368295138934</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.055077043784076</v>
+        <v>-1.584811159793493</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.154628488225568</v>
+        <v>0.7939861813919271</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-17.9177766963736</v>
+        <v>-17.52493663920573</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3655925086211913</v>
+        <v>-0.3583612055283619</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3036154234537048</v>
+        <v>-0.3115380896902241</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.8056959705812738</v>
+        <v>-0.8032014470399491</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3948779760348777</v>
+        <v>-0.391575484411269</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3009833244921242</v>
+        <v>-0.2964359850415956</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.6139935493384089</v>
+        <v>-0.609338056170604</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.332849529116909</v>
+        <v>-0.3308205252109211</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.261270760570241</v>
+        <v>-0.2607410151869123</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.6620350457548485</v>
+        <v>-0.6567267942736795</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2038437432119772</v>
+        <v>0.1713865148069593</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1947347204435105</v>
+        <v>0.1710582508822642</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.5944532249514483</v>
+        <v>-0.5914113107833202</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.08801944169733956</v>
+        <v>-0.08347035590654882</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.07318251377501739</v>
+        <v>0.04996580081691021</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.4282818564480557</v>
+        <v>-0.4219275470284173</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.05495235704298519</v>
+        <v>-0.04476066931869439</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03616101015680465</v>
+        <v>0.02244364144109436</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.5216743276410465</v>
+        <v>-0.5099678726049757</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>15.41851097673593</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-3.753928367336656</v>
+        <v>-3.753928367336659</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.788803350905062</v>
@@ -2153,7 +2153,7 @@
         <v>7.890777670217153</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-10.95798351759882</v>
+        <v>-10.95798351759883</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>8.11198161396551</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>10.46714548724683</v>
+        <v>10.24650174526569</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>13.23963521889419</v>
+        <v>13.16935614055511</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.704728459582966</v>
+        <v>-5.586474182786263</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.520736784054249</v>
+        <v>1.55640790648274</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>5.717489077076264</v>
+        <v>5.777536112162808</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-12.87411129760924</v>
+        <v>-12.92216397284037</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>6.446396619752647</v>
+        <v>6.453828664818391</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>9.821844411434823</v>
+        <v>9.949935748296493</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-8.69575237258268</v>
+        <v>-8.810267317465229</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>14.59054713034066</v>
+        <v>14.67816502171514</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>17.43022503271612</v>
+        <v>17.57994631728838</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-2.131628641802369</v>
+        <v>-1.798366945460401</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.001408816739986</v>
+        <v>6.176140035117958</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>10.17048967245567</v>
+        <v>10.15253138368101</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-8.979925980480449</v>
+        <v>-8.945600409670847</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>9.619710599776853</v>
+        <v>9.719139371648824</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>13.15214550385662</v>
+        <v>13.08736749790664</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-5.988197068450353</v>
+        <v>-6.057699003669529</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.8527828431291723</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2076261262083501</v>
+        <v>-0.2076261262083502</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1361738458060436</v>
@@ -2258,7 +2258,7 @@
         <v>0.2836034077876446</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.393842229239535</v>
+        <v>-0.3938422292395351</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3524745529256893</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.5423609895652837</v>
+        <v>0.5340446333249418</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.6865921483452407</v>
+        <v>0.683957868994767</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2958379593938599</v>
+        <v>-0.2948974477912629</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.05170693823999317</v>
+        <v>0.05394053208180018</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1970324195957109</v>
+        <v>0.200471072118783</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4479617247536934</v>
+        <v>-0.4483224716721109</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2746004227956654</v>
+        <v>0.2737790780931311</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.4095125979857981</v>
+        <v>0.415286875135339</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3663947228553095</v>
+        <v>-0.3697522544359216</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8519765779694217</v>
+        <v>0.860341808284341</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.013666884242374</v>
+        <v>1.031053895623021</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1216868936267443</v>
+        <v>-0.1072776909556017</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2255426294794179</v>
+        <v>0.2331859638729336</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3868299369864585</v>
+        <v>0.3824113183149616</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.3385825610886851</v>
+        <v>-0.3377120044885751</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4340270633118906</v>
+        <v>0.4354849223411493</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5918701945010846</v>
+        <v>0.5838089607928617</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2688876503944739</v>
+        <v>-0.2713533538933948</v>
       </c>
     </row>
     <row r="52">
